--- a/Dragonfall/gameData/shared/HouseLevelUp.xlsx
+++ b/Dragonfall/gameData/shared/HouseLevelUp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="2000" windowWidth="28040" windowHeight="15600" tabRatio="347" activeTab="4"/>
+    <workbookView xWindow="700" yWindow="480" windowWidth="31420" windowHeight="19100" tabRatio="347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="340">
+  <cellStyleXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -608,7 +618,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="340">
+  <cellStyles count="350">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -781,6 +791,11 @@
     <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -946,6 +961,11 @@
     <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1398,7 +1418,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1624,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
@@ -1784,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1670</v>
+        <v>2030</v>
       </c>
       <c r="J12" s="1">
         <v>0</v>
@@ -1816,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>2030</v>
+        <v>2570</v>
       </c>
       <c r="J13" s="1">
         <v>0</v>
@@ -1848,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>2390</v>
+        <v>3146</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -1880,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>4550</v>
+        <v>6278</v>
       </c>
       <c r="J15" s="1">
         <v>0</v>
@@ -1912,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>6710</v>
+        <v>9626</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
@@ -1944,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>8870</v>
+        <v>13190</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
@@ -1976,7 +1996,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>11030</v>
+        <v>16970</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -2008,7 +2028,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>13190</v>
+        <v>20966</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -2040,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>15350</v>
+        <v>25178</v>
       </c>
       <c r="J20" s="1">
         <v>0</v>
@@ -2072,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="I21" s="1">
-        <v>17510</v>
+        <v>29606</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -2104,7 +2124,7 @@
         <v>18</v>
       </c>
       <c r="I22" s="1">
-        <v>19670</v>
+        <v>34250</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -2136,7 +2156,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="1">
-        <v>21830</v>
+        <v>39110</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
@@ -2168,7 +2188,7 @@
         <v>26</v>
       </c>
       <c r="I24" s="1">
-        <v>23990</v>
+        <v>43473</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -2200,7 +2220,7 @@
         <v>30</v>
       </c>
       <c r="I25" s="1">
-        <v>26150</v>
+        <v>47923</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -2232,7 +2252,7 @@
         <v>40</v>
       </c>
       <c r="I26" s="1">
-        <v>28310</v>
+        <v>52178</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -2264,7 +2284,7 @@
         <v>50</v>
       </c>
       <c r="I27" s="1">
-        <v>30470</v>
+        <v>56476</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -2296,7 +2316,7 @@
         <v>60</v>
       </c>
       <c r="I28" s="1">
-        <v>32630</v>
+        <v>60818</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -2328,7 +2348,7 @@
         <v>70</v>
       </c>
       <c r="I29" s="1">
-        <v>34790</v>
+        <v>65203</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -2360,7 +2380,7 @@
         <v>90</v>
       </c>
       <c r="I30" s="1">
-        <v>39110</v>
+        <v>73713</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -2392,7 +2412,7 @@
         <v>110</v>
       </c>
       <c r="I31" s="1">
-        <v>43430</v>
+        <v>82310</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -2424,7 +2444,7 @@
         <v>130</v>
       </c>
       <c r="I32" s="1">
-        <v>47750</v>
+        <v>90993</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -2456,7 +2476,7 @@
         <v>150</v>
       </c>
       <c r="I33" s="1">
-        <v>52070</v>
+        <v>99763</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -2488,7 +2508,7 @@
         <v>180</v>
       </c>
       <c r="I34" s="1">
-        <v>56390</v>
+        <v>108619</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -2520,7 +2540,7 @@
         <v>210</v>
       </c>
       <c r="I35" s="1">
-        <v>60710</v>
+        <v>117561</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -2552,7 +2572,7 @@
         <v>240</v>
       </c>
       <c r="I36" s="1">
-        <v>65030</v>
+        <v>126590</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -2584,7 +2604,7 @@
         <v>270</v>
       </c>
       <c r="I37" s="1">
-        <v>69350</v>
+        <v>135705</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -2616,7 +2636,7 @@
         <v>310</v>
       </c>
       <c r="I38" s="1">
-        <v>73670</v>
+        <v>144907</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -2648,7 +2668,7 @@
         <v>350</v>
       </c>
       <c r="I39" s="1">
-        <v>77990</v>
+        <v>154195</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -2680,7 +2700,7 @@
         <v>390</v>
       </c>
       <c r="I40" s="1">
-        <v>82310</v>
+        <v>163569</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
@@ -2712,7 +2732,7 @@
         <v>430</v>
       </c>
       <c r="I41" s="1">
-        <v>86630</v>
+        <v>173030</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
@@ -2740,7 +2760,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I47"/>
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3126,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1382</v>
+        <v>1670</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -3158,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1670</v>
+        <v>2102</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -3190,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1958</v>
+        <v>2563</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -3222,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>3686</v>
+        <v>5068</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -3254,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>5414</v>
+        <v>7747</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -3286,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>7142</v>
+        <v>10598</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -3318,7 +3338,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>8870</v>
+        <v>13622</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -3350,7 +3370,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>10598</v>
+        <v>16819</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -3382,7 +3402,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>12326</v>
+        <v>20188</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -3414,7 +3434,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>14054</v>
+        <v>23731</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -3446,7 +3466,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>15782</v>
+        <v>27446</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -3478,7 +3498,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>17510</v>
+        <v>31334</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -3510,7 +3530,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>19238</v>
+        <v>34825</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -3542,7 +3562,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>20966</v>
+        <v>38384</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -3574,7 +3594,7 @@
         <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>22694</v>
+        <v>41788</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -3606,7 +3626,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>24422</v>
+        <v>45227</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -3638,7 +3658,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>26150</v>
+        <v>48700</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -3670,7 +3690,7 @@
         <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>27878</v>
+        <v>52208</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -3702,7 +3722,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>31334</v>
+        <v>59017</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -3734,7 +3754,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>34790</v>
+        <v>65894</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -3766,7 +3786,7 @@
         <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>38246</v>
+        <v>72841</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -3798,7 +3818,7 @@
         <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>41702</v>
+        <v>79856</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -3830,7 +3850,7 @@
         <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>45158</v>
+        <v>86941</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -3862,7 +3882,7 @@
         <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>48614</v>
+        <v>94095</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -3894,7 +3914,7 @@
         <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>52070</v>
+        <v>101318</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -3926,7 +3946,7 @@
         <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>55526</v>
+        <v>108610</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -3958,7 +3978,7 @@
         <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>58982</v>
+        <v>115971</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -3990,7 +4010,7 @@
         <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>62438</v>
+        <v>123402</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -4022,7 +4042,7 @@
         <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>65894</v>
+        <v>130901</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -4054,7 +4074,7 @@
         <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>69350</v>
+        <v>138470</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>
@@ -4111,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4498,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1478</v>
+        <v>1790</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -4530,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1790</v>
+        <v>2258</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -4562,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>2102</v>
+        <v>2757</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -4594,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>3974</v>
+        <v>5472</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -4626,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>5846</v>
+        <v>8373</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -4658,7 +4678,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>7718</v>
+        <v>11462</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -4690,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>9590</v>
+        <v>14738</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -4722,7 +4742,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>11462</v>
+        <v>18201</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -4754,7 +4774,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>13334</v>
+        <v>21852</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -4786,7 +4806,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>15206</v>
+        <v>25689</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -4818,7 +4838,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>17078</v>
+        <v>29714</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -4850,7 +4870,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>18950</v>
+        <v>33926</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -4882,7 +4902,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>20822</v>
+        <v>37707</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -4914,7 +4934,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>22694</v>
+        <v>41564</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -4946,7 +4966,7 @@
         <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>24566</v>
+        <v>45252</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -4978,7 +4998,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>26438</v>
+        <v>48977</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -5010,7 +5030,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>28310</v>
+        <v>52740</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -5042,7 +5062,7 @@
         <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>30182</v>
+        <v>56540</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -5074,7 +5094,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>33926</v>
+        <v>63915</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -5106,7 +5126,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>37670</v>
+        <v>71366</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -5138,7 +5158,7 @@
         <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>41414</v>
+        <v>78891</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -5170,7 +5190,7 @@
         <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>45158</v>
+        <v>86492</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -5202,7 +5222,7 @@
         <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>48902</v>
+        <v>94167</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -5234,7 +5254,7 @@
         <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>52646</v>
+        <v>101917</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -5266,7 +5286,7 @@
         <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>56390</v>
+        <v>109742</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -5298,7 +5318,7 @@
         <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>60134</v>
+        <v>117642</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -5330,7 +5350,7 @@
         <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>63878</v>
+        <v>125617</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -5362,7 +5382,7 @@
         <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>67622</v>
+        <v>133666</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -5394,7 +5414,7 @@
         <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>71366</v>
+        <v>141791</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -5426,7 +5446,7 @@
         <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>75110</v>
+        <v>149990</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>
@@ -5459,7 +5479,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I43"/>
+      <selection activeCell="I2" sqref="I2:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5845,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1574</v>
+        <v>1910</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -5877,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1910</v>
+        <v>2414</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -5909,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>2246</v>
+        <v>2952</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -5941,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>4262</v>
+        <v>5875</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -5973,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>6278</v>
+        <v>9000</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -6005,7 +6025,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>8294</v>
+        <v>12326</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -6037,7 +6057,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>10310</v>
+        <v>15854</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -6069,7 +6089,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>12326</v>
+        <v>19584</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -6101,7 +6121,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>14342</v>
+        <v>23515</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -6133,7 +6153,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>16358</v>
+        <v>27648</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -6165,7 +6185,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>18374</v>
+        <v>31982</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -6197,7 +6217,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>20390</v>
+        <v>36518</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -6229,7 +6249,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>22406</v>
+        <v>40590</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -6261,7 +6281,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>24422</v>
+        <v>44743</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -6293,7 +6313,7 @@
         <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>26438</v>
+        <v>48715</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -6325,7 +6345,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>28454</v>
+        <v>52727</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -6357,7 +6377,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>30470</v>
+        <v>56779</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -6389,7 +6409,7 @@
         <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>32486</v>
+        <v>60871</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -6421,7 +6441,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>36518</v>
+        <v>68814</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -6453,7 +6473,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>40550</v>
+        <v>76838</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -6485,7 +6505,7 @@
         <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>44582</v>
+        <v>84942</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -6517,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>48614</v>
+        <v>93127</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -6549,7 +6569,7 @@
         <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>52646</v>
+        <v>101393</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -6581,7 +6601,7 @@
         <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>56678</v>
+        <v>109739</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -6613,7 +6633,7 @@
         <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>60710</v>
+        <v>118166</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -6645,7 +6665,7 @@
         <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>64742</v>
+        <v>126674</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -6677,7 +6697,7 @@
         <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>68774</v>
+        <v>135262</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -6709,7 +6729,7 @@
         <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>72806</v>
+        <v>143930</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -6741,7 +6761,7 @@
         <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>76838</v>
+        <v>152680</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -6773,7 +6793,7 @@
         <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>80870</v>
+        <v>161510</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>
@@ -6795,8 +6815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I45"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7182,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1286</v>
+        <v>1550</v>
       </c>
       <c r="J12" s="1">
         <v>166</v>
@@ -7214,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1550</v>
+        <v>1946</v>
       </c>
       <c r="J13" s="1">
         <v>196</v>
@@ -7246,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1814</v>
+        <v>2368</v>
       </c>
       <c r="J14" s="1">
         <v>226</v>
@@ -7278,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>3398</v>
+        <v>4665</v>
       </c>
       <c r="J15" s="1">
         <v>260</v>
@@ -7310,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>4982</v>
+        <v>7120</v>
       </c>
       <c r="J16" s="1">
         <v>296</v>
@@ -7342,7 +7362,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>6566</v>
+        <v>9734</v>
       </c>
       <c r="J17" s="1">
         <v>334</v>
@@ -7374,7 +7394,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>8150</v>
+        <v>12506</v>
       </c>
       <c r="J18" s="1">
         <v>376</v>
@@ -7406,7 +7426,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="1">
-        <v>9734</v>
+        <v>15436</v>
       </c>
       <c r="J19" s="1">
         <v>418</v>
@@ -7438,7 +7458,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>11318</v>
+        <v>18525</v>
       </c>
       <c r="J20" s="1">
         <v>464</v>
@@ -7470,7 +7490,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>12902</v>
+        <v>21772</v>
       </c>
       <c r="J21" s="1">
         <v>512</v>
@@ -7502,7 +7522,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="1">
-        <v>14486</v>
+        <v>25178</v>
       </c>
       <c r="J22" s="1">
         <v>562</v>
@@ -7534,7 +7554,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>16070</v>
+        <v>28742</v>
       </c>
       <c r="J23" s="1">
         <v>616</v>
@@ -7566,7 +7586,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="1">
-        <v>17654</v>
+        <v>31942</v>
       </c>
       <c r="J24" s="1">
         <v>670</v>
@@ -7598,7 +7618,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="1">
-        <v>19238</v>
+        <v>35205</v>
       </c>
       <c r="J25" s="1">
         <v>728</v>
@@ -7630,7 +7650,7 @@
         <v>32</v>
       </c>
       <c r="I26" s="1">
-        <v>20822</v>
+        <v>38325</v>
       </c>
       <c r="J26" s="1">
         <v>788</v>
@@ -7662,7 +7682,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="1">
-        <v>22406</v>
+        <v>41477</v>
       </c>
       <c r="J27" s="1">
         <v>850</v>
@@ -7694,7 +7714,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="1">
-        <v>23990</v>
+        <v>44661</v>
       </c>
       <c r="J28" s="1">
         <v>916</v>
@@ -7726,7 +7746,7 @@
         <v>50</v>
       </c>
       <c r="I29" s="1">
-        <v>25574</v>
+        <v>47877</v>
       </c>
       <c r="J29" s="1">
         <v>982</v>
@@ -7758,7 +7778,7 @@
         <v>64</v>
       </c>
       <c r="I30" s="1">
-        <v>28742</v>
+        <v>54118</v>
       </c>
       <c r="J30" s="1">
         <v>1052</v>
@@ -7790,7 +7810,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="1">
-        <v>31910</v>
+        <v>60422</v>
       </c>
       <c r="J31" s="1">
         <v>1124</v>
@@ -7822,7 +7842,7 @@
         <v>92</v>
       </c>
       <c r="I32" s="1">
-        <v>35078</v>
+        <v>66790</v>
       </c>
       <c r="J32" s="1">
         <v>1198</v>
@@ -7854,7 +7874,7 @@
         <v>106</v>
       </c>
       <c r="I33" s="1">
-        <v>38246</v>
+        <v>73221</v>
       </c>
       <c r="J33" s="1">
         <v>1276</v>
@@ -7886,7 +7906,7 @@
         <v>134</v>
       </c>
       <c r="I34" s="1">
-        <v>41414</v>
+        <v>79715</v>
       </c>
       <c r="J34" s="1">
         <v>1354</v>
@@ -7918,7 +7938,7 @@
         <v>162</v>
       </c>
       <c r="I35" s="1">
-        <v>44582</v>
+        <v>86273</v>
       </c>
       <c r="J35" s="1">
         <v>1436</v>
@@ -7950,7 +7970,7 @@
         <v>190</v>
       </c>
       <c r="I36" s="1">
-        <v>47750</v>
+        <v>92894</v>
       </c>
       <c r="J36" s="1">
         <v>1520</v>
@@ -7982,7 +8002,7 @@
         <v>218</v>
       </c>
       <c r="I37" s="1">
-        <v>50918</v>
+        <v>99578</v>
       </c>
       <c r="J37" s="1">
         <v>1606</v>
@@ -8014,7 +8034,7 @@
         <v>264</v>
       </c>
       <c r="I38" s="1">
-        <v>54086</v>
+        <v>106326</v>
       </c>
       <c r="J38" s="1">
         <v>1696</v>
@@ -8046,7 +8066,7 @@
         <v>310</v>
       </c>
       <c r="I39" s="1">
-        <v>57254</v>
+        <v>113138</v>
       </c>
       <c r="J39" s="1">
         <v>1786</v>
@@ -8078,7 +8098,7 @@
         <v>356</v>
       </c>
       <c r="I40" s="1">
-        <v>60422</v>
+        <v>120012</v>
       </c>
       <c r="J40" s="1">
         <v>1880</v>
@@ -8110,7 +8130,7 @@
         <v>402</v>
       </c>
       <c r="I41" s="1">
-        <v>63590</v>
+        <v>126950</v>
       </c>
       <c r="J41" s="1">
         <v>2000</v>

--- a/Dragonfall/gameData/shared/HouseLevelUp.xlsx
+++ b/Dragonfall/gameData/shared/HouseLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="480" windowWidth="31420" windowHeight="19100" tabRatio="347" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="350">
+  <cellStyleXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -618,7 +620,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="350">
+  <cellStyles count="352">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -796,6 +798,7 @@
     <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -966,6 +969,7 @@
     <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1418,7 +1422,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1484,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -2760,7 +2764,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2826,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -4131,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4198,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -5479,7 +5483,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I49"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5545,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -6815,8 +6819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6882,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>

--- a/Dragonfall/gameData/shared/HouseLevelUp.xlsx
+++ b/Dragonfall/gameData/shared/HouseLevelUp.xlsx
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="352">
+  <cellStyleXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -620,7 +622,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="352">
+  <cellStyles count="354">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -799,6 +801,7 @@
     <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -970,6 +973,7 @@
     <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1488,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -2830,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -4202,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -5483,7 +5487,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5549,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -6819,8 +6823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6886,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>

--- a/Dragonfall/gameData/shared/HouseLevelUp.xlsx
+++ b/Dragonfall/gameData/shared/HouseLevelUp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="480" windowWidth="31420" windowHeight="19100" tabRatio="347" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="347" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dwelling" sheetId="21" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="350">
+  <cellStyleXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -262,6 +262,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -618,7 +622,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="350">
+  <cellStyles count="354">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -796,6 +800,8 @@
     <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -966,6 +972,8 @@
     <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1418,7 +1426,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1484,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -2760,7 +2768,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2826,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -4131,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I42"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4198,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -5479,7 +5487,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I49"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5545,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -6815,8 +6823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6882,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
